--- a/tables/Вокзал Смоленск.xlsx
+++ b/tables/Вокзал Смоленск.xlsx
@@ -540,12 +540,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -663,12 +663,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -685,22 +685,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>87.5%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -828,12 +828,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.5%</t>
+          <t>12,5%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>62,5%</t>
         </is>
       </c>
     </row>
